--- a/codes/dotnet/product-management-system/app_plan.xlsx
+++ b/codes/dotnet/product-management-system/app_plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LnT-Training\lnt-Jan2022batch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LnT-Training\lnt-Jan2022batch\codes\dotnet\product-management-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C835CCD-7456-4F8C-BBAB-F5B91BE8AE92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AEFE44-0484-4EF0-800C-0599A8DBC142}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" xr2:uid="{BE923B8F-73D5-4D91-BDFF-2B12FC9AADF3}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Layer</t>
   </si>
   <si>
-    <t>Data Access Layer</t>
-  </si>
-  <si>
     <t>Methods</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>stored procedures</t>
+  </si>
+  <si>
+    <t>Product Data Access Layer</t>
   </si>
 </sst>
 </file>
@@ -386,6 +386,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,7 +406,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,7 +415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,7 +732,7 @@
   <dimension ref="B3:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -747,333 +747,333 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="12"/>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="12"/>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="12"/>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="13"/>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" t="s">
         <v>7</v>
       </c>
-      <c r="J3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="F17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="13"/>
+      <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="D19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="I19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="J19" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I22" s="13" t="s">
-        <v>3</v>
+      <c r="I22" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I23" s="13" t="s">
-        <v>17</v>
+      <c r="I23" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I26" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I27" s="13" t="s">
-        <v>31</v>
+      <c r="I27" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="I28" s="13" t="s">
-        <v>34</v>
+      <c r="I28" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
